--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="126">
   <si>
     <t>TCID</t>
   </si>
@@ -392,128 +392,29 @@
     <t>Click on distributation button</t>
   </si>
   <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":"a[href=\"http://backstage-stg.gen.video/publish/overview\"]"}
-Command duration or timeout: 20.05 seconds
+    <t>TS032</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":"a[class=\"dropdown-toggle navUserLink\"]"}
+Command duration or timeout: 20.03 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=css selector, value=a[href="http://backstage-stg.gen.video/publish/overview"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":"a[href=\"http://backstage-stg.gen.video/publish/engagement-orders\"]"}
-Command duration or timeout: 20.07 seconds
+Session ID: d5c7aeb1-5f81-409a-b9ce-f47fd77b8bdd
+*** Element info: {Using=css selector, value=a[class="dropdown-toggle navUserLink"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='bs-example-navbar-collapse-1']/ul[2]/li[2]/ul/li[5]/a"}
+Command duration or timeout: 20.08 seconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=css selector, value=a[href="http://backstage-stg.gen.video/publish/engagement-orders"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to wait</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-managers']/div/div[2]/div[2]/a"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-managers']/div/div[2]/div[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":".//*[@id='name']"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='name']}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":".//*[@id='description']"}
-Command duration or timeout: 20.22 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='description']}</t>
-  </si>
-  <si>
-    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='startdate']"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='startdate']}</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[5]/div/div/button"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[5]/div/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/button"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='assign-targets']/div/div/div[2]/div[1]/ul/li[1]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='assign-targets']/div/div/div[2]/div[1]/ul/li[1]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='assign-targets']/div/div/button"}
-Command duration or timeout: 20.12 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='assign-targets']/div/div/button}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 16:57:40'
-System info: host: 'pclap-002', ip: '172.16.146.24', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: ada0cfd6-61ef-4055-820f-cbd711ab5537
-*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+Session ID: d5c7aeb1-5f81-409a-b9ce-f47fd77b8bdd
+*** Element info: {Using=xpath, value=.//*[@id='bs-example-navbar-collapse-1']/ul[2]/li[2]/ul/li[5]/a}</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1161,7 @@
     <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
@@ -1592,7 +1493,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
@@ -1639,7 +1540,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
@@ -2011,15 +1912,11 @@
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
@@ -2060,12 +1957,14 @@
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2109,9 +2008,11 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
@@ -2152,15 +2053,11 @@
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" t="s">
@@ -2201,11 +2098,15 @@
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" t="s">
@@ -2246,18 +2147,12 @@
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
         <v>27</v>
@@ -2298,16 +2193,16 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s">
@@ -2349,13 +2244,17 @@
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" t="s">
         <v>27</v>
@@ -2395,9 +2294,11 @@
       <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2440,11 +2341,9 @@
       <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2488,14 +2387,12 @@
         <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" t="s">
@@ -2537,13 +2434,13 @@
         <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2585,11 +2482,15 @@
       <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
@@ -2630,15 +2531,11 @@
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" t="s">
@@ -2679,12 +2576,14 @@
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2726,11 +2625,9 @@
       <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>107</v>
@@ -2776,12 +2673,14 @@
         <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
@@ -2815,18 +2714,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2842,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2856,7 +2802,7 @@
     <col min="6" max="6" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="6" width="17.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="6.3984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="6" width="19.42578125" collapsed="true"/>
     <col min="11" max="12" style="6" width="8.85546875" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
@@ -2914,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -393,35 +393,12 @@
   </si>
   <si>
     <t>TS032</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":"a[class=\"dropdown-toggle navUserLink\"]"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5c7aeb1-5f81-409a-b9ce-f47fd77b8bdd
-*** Element info: {Using=css selector, value=a[class="dropdown-toggle navUserLink"]}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='bs-example-navbar-collapse-1']/ul[2]/li[2]/ul/li[5]/a"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
-System info: host: 'pclap-002', ip: '172.16.146.132', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: d5c7aeb1-5f81-409a-b9ce-f47fd77b8bdd
-*** Element info: {Using=xpath, value=.//*[@id='bs-example-navbar-collapse-1']/ul[2]/li[2]/ul/li[5]/a}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1106,10 +1083,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,30 +1125,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1493,7 +1463,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
@@ -1540,7 +1510,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
@@ -2788,25 +2758,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="26.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="21.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="6" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="19.42578125" collapsed="true"/>
-    <col min="11" max="12" style="6" width="8.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
-    <col min="14" max="16384" style="6" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="26.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="6" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="8.85546875" style="6" collapsed="1"/>
+    <col min="13" max="13" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="8.85546875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2860,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -399,6 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1083,10 +1084,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,17 +1132,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2764,19 +2772,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="6" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="8.85546875" style="6" collapsed="1"/>
-    <col min="13" max="13" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="8.85546875" style="6" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="26.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="21.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="29.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="6.3984375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="19.42578125" collapsed="true"/>
+    <col min="11" max="12" style="6" width="8.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
+    <col min="14" max="16384" style="6" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -399,7 +399,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,10 +1083,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,29 +1126,22 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2772,19 +2764,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="26.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="21.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="6" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="6.3984375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="19.42578125" collapsed="true"/>
-    <col min="11" max="12" style="6" width="8.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
-    <col min="14" max="16384" style="6" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="26.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="6" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="8.85546875" style="6" collapsed="1"/>
+    <col min="13" max="13" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="8.85546875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4195" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4195" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="783"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7832" uniqueCount="157">
   <si>
     <t>TCID</t>
   </si>
@@ -393,6 +393,345 @@
   </si>
   <si>
     <t>TS032</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[1]/div[2]/div/div/div[3]/form/div[1]/input"}
+Command duration or timeout: 20.17 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '127.0.0.1', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5cc66e5b-dd58-4cf6-978a-ac00800e3cc5
+*** Element info: {Using=xpath, value=html/body/div[1]/div[2]/div/div/div[3]/form/div[1]/input}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[1]/div[2]/div/div/div[3]/form/div[2]/input"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '127.0.0.1', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5cc66e5b-dd58-4cf6-978a-ac00800e3cc5
+*** Element info: {Using=xpath, value=html/body/div[1]/div[2]/div/div/div[3]/form/div[2]/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":"html/body/div[1]/div[2]/div/div/div[3]/form/div[3]/div[2]/input"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '127.0.0.1', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5cc66e5b-dd58-4cf6-978a-ac00800e3cc5
+*** Element info: {Using=xpath, value=html/body/div[1]/div[2]/div/div/div[3]/form/div[3]/div[2]/input}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":"a[class=\"dropdown-toggle navUserLink\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '127.0.0.1', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5cc66e5b-dd58-4cf6-978a-ac00800e3cc5
+*** Element info: {Using=css selector, value=a[class="dropdown-toggle navUserLink"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='bs-example-navbar-collapse-1']/ul[2]/li[2]/ul/li[5]/a"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '127.0.0.1', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5cc66e5b-dd58-4cf6-978a-ac00800e3cc5
+*** Element info: {Using=xpath, value=.//*[@id='bs-example-navbar-collapse-1']/ul[2]/li[2]/ul/li[5]/a}</t>
+  </si>
+  <si>
+    <t>FAIL - Could not select from list. Cannot locate option with index: 17
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: driver.version: unknown</t>
+  </si>
+  <si>
+    <t>FAIL - Could not select from list. Cannot locate option with index: 2
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: driver.version: unknown</t>
+  </si>
+  <si>
+    <t>FAIL - Could not select from list. Cannot locate option with index: 1
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: driver.version: unknown</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":".navOpt.navOpt-publish"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=css selector, value=.navOpt.navOpt-publish}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":".subNavLink[href=\"https://backstage-stg.gen.video/publish/engagement-orders\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=css selector, value=.subNavLink[href="https://backstage-stg.gen.video/publish/engagement-orders"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to wait</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-managers']/div/div[2]/div[2]/a"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-managers']/div/div[2]/div[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":".//*[@id='name']"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='name']}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":".//*[@id='description']"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='description']}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='startdate']"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='startdate']}</t>
+  </si>
+  <si>
+    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[5]/div/div/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[5]/div/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='assign-targets']/div/div/div[2]/div[1]/ul/li[1]"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='assign-targets']/div/div/div[2]/div[1]/ul/li[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='assign-targets']/div/div/button"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='assign-targets']/div/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 5de3c6ac-7d73-4bfb-aa45-72963972cc31
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":".navOpt.navOpt-publish"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=css selector, value=.navOpt.navOpt-publish}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"css selector","selector":".subNavLink[href=\"https://backstage-stg.gen.video/publish/engagement-orders\"]"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=css selector, value=.subNavLink[href="https://backstage-stg.gen.video/publish/engagement-orders"]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-managers']/div/div[2]/div[2]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-managers']/div/div[2]/div[2]/a}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":".//*[@id='name']"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='name']}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":".//*[@id='description']"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='description']}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='startdate']"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='startdate']}</t>
+  </si>
+  <si>
+    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[5]/div/div/button"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[5]/div/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/button"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='assign-targets']/div/div/div[2]/div[1]/ul/li[1]"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='assign-targets']/div/div/div[2]/div[1]/ul/li[1]}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='assign-targets']/div/div/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='assign-targets']/div/div/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7832" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16742" uniqueCount="255">
   <si>
     <t>TCID</t>
   </si>
@@ -731,6 +731,1000 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: 81f5f3b3-fc0c-4400-8c86-73c625b6a474
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.16 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 04c33498-d307-436f-aa54-9a55540c0dfd
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 04c33498-d307-436f-aa54-9a55540c0dfd</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 04c33498-d307-436f-aa54-9a55540c0dfd
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.16 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 142df100-fe63-420d-92f5-d65667e9f6ab
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 142df100-fe63-420d-92f5-d65667e9f6ab</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 142df100-fe63-420d-92f5-d65667e9f6ab</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 142df100-fe63-420d-92f5-d65667e9f6ab
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.18 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ab001b70-4343-49c2-a651-6e9d44b9ac06
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ab001b70-4343-49c2-a651-6e9d44b9ac06</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ab001b70-4343-49c2-a651-6e9d44b9ac06</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ab001b70-4343-49c2-a651-6e9d44b9ac06
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openno such element: Unable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+  (Session info: chrome=51.0.2704.103)
+  (Driver info: chromedriver=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4),platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, chrome={chromedriverVersion=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4), userDataDir=C:\Users\user\AppData\Local\Temp\scoped_dir7820_8539}, takesHeapSnapshot=true, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=51.0.2704.103, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2f38034fdd695ba6d747996faacf5f63
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkunknown error: Element is not clickable at point (1172, 652). Other element would receive the click: &lt;form class="clearfix mtb-10 ng-invalid ng-invalid-required ng-dirty" name="orderDetailsForm" ng-submit="saveEngagementOrder();"&gt;...&lt;/form&gt;
+  (Session info: chrome=51.0.2704.103)
+  (Driver info: chromedriver=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4),platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 82 milliseconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, chrome={chromedriverVersion=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4), userDataDir=C:\Users\user\AppData\Local\Temp\scoped_dir7820_8539}, takesHeapSnapshot=true, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=51.0.2704.103, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2f38034fdd695ba6d747996faacf5f63</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkelement not visible
+  (Session info: chrome=51.0.2704.103)
+  (Driver info: chromedriver=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4),platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 40 milliseconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, chrome={chromedriverVersion=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4), userDataDir=C:\Users\user\AppData\Local\Temp\scoped_dir7820_8539}, takesHeapSnapshot=true, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=51.0.2704.103, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2f38034fdd695ba6d747996faacf5f63</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkno such element: Unable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+  (Session info: chrome=51.0.2704.103)
+  (Driver info: chromedriver=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4),platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, chrome={chromedriverVersion=2.21.371459 (36d3d07f660ff2bc1bf28a75d1cdabed0983e7c4), userDataDir=C:\Users\user\AppData\Local\Temp\scoped_dir7820_8539}, takesHeapSnapshot=true, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=51.0.2704.103, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2f38034fdd695ba6d747996faacf5f63
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 29653617-a523-49b8-9dfb-cf4e75be8b02
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 29653617-a523-49b8-9dfb-cf4e75be8b02</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 29653617-a523-49b8-9dfb-cf4e75be8b02</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 29653617-a523-49b8-9dfb-cf4e75be8b02
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.18 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2e753a4e-ccb9-441d-8243-1e338e726f4f
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.04 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2e753a4e-ccb9-441d-8243-1e338e726f4f</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2e753a4e-ccb9-441d-8243-1e338e726f4f</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2e753a4e-ccb9-441d-8243-1e338e726f4f
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 0dceadc3-a172-46ed-95d9-ec8bd62de1a0
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 0dceadc3-a172-46ed-95d9-ec8bd62de1a0</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 0dceadc3-a172-46ed-95d9-ec8bd62de1a0</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 0dceadc3-a172-46ed-95d9-ec8bd62de1a0
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 508f4193-6b35-4245-8dfa-aed3bf9194fb
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 508f4193-6b35-4245-8dfa-aed3bf9194fb</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.16 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 508f4193-6b35-4245-8dfa-aed3bf9194fb</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 508f4193-6b35-4245-8dfa-aed3bf9194fb
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fac09560-c5e0-4819-a3c7-2c91529660c5
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fac09560-c5e0-4819-a3c7-2c91529660c5</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fac09560-c5e0-4819-a3c7-2c91529660c5</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: fac09560-c5e0-4819-a3c7-2c91529660c5
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.02 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: bcc8bf00-4f64-40e2-88a3-41edf9abc7ff
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: bcc8bf00-4f64-40e2-88a3-41edf9abc7ff</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: bcc8bf00-4f64-40e2-88a3-41edf9abc7ff</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.11', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: bcc8bf00-4f64-40e2-88a3-41edf9abc7ff
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 08275245-f725-4596-bd71-c290e21bd750
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 08275245-f725-4596-bd71-c290e21bd750</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 08275245-f725-4596-bd71-c290e21bd750
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.07 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c0a6c1a0-4013-48b0-b038-5c7a5ff51f16
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c0a6c1a0-4013-48b0-b038-5c7a5ff51f16</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c0a6c1a0-4013-48b0-b038-5c7a5ff51f16</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.198', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c0a6c1a0-4013-48b0-b038-5c7a5ff51f16
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ffe3c99f-8ab1-4b1e-944c-d9c9206420b4
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ffe3c99f-8ab1-4b1e-944c-d9c9206420b4</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '192.168.1.147', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ffe3c99f-8ab1-4b1e-944c-d9c9206420b4
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.17 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 293b1f05-5ea5-4f13-97bb-d989584b0eb9
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.11 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 293b1f05-5ea5-4f13-97bb-d989584b0eb9</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 293b1f05-5ea5-4f13-97bb-d989584b0eb9</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 293b1f05-5ea5-4f13-97bb-d989584b0eb9
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 45aca47a-2e20-4d0f-b33a-3b6d9224f944
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 45aca47a-2e20-4d0f-b33a-3b6d9224f944</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.14 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 45aca47a-2e20-4d0f-b33a-3b6d9224f944
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: f3b59380-11ee-4495-a44b-eafa9223d853
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: f3b59380-11ee-4495-a44b-eafa9223d853</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: f3b59380-11ee-4495-a44b-eafa9223d853
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.17 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 14a1826c-9c74-408e-baf3-4e7c4cf1234d
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.04 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 14a1826c-9c74-408e-baf3-4e7c4cf1234d</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 14a1826c-9c74-408e-baf3-4e7c4cf1234d</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 14a1826c-9c74-408e-baf3-4e7c4cf1234d
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d709a065-388a-40c8-b380-a303115b3a0e
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d709a065-388a-40c8-b380-a303115b3a0e</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d709a065-388a-40c8-b380-a303115b3a0e</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d709a065-388a-40c8-b380-a303115b3a0e
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 39018973-1d5c-4de0-a6be-a6ad6e84cd58
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 39018973-1d5c-4de0-a6be-a6ad6e84cd58</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 39018973-1d5c-4de0-a6be-a6ad6e84cd58</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 39018973-1d5c-4de0-a6be-a6ad6e84cd58
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.16 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: aa52802c-fe44-4f0e-bc34-81529c5bbb77
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: aa52802c-fe44-4f0e-bc34-81529c5bbb77</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: aa52802c-fe44-4f0e-bc34-81529c5bbb77</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: aa52802c-fe44-4f0e-bc34-81529c5bbb77
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ebb5d463-5407-4fff-8f9f-06f04d91dc23
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ebb5d463-5407-4fff-8f9f-06f04d91dc23</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.04 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: ebb5d463-5407-4fff-8f9f-06f04d91dc23
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8c8e4a59-9178-4781-ac40-7e7cb23ecab9
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.05 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8c8e4a59-9178-4781-ac40-7e7cb23ecab9</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.04 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8c8e4a59-9178-4781-ac40-7e7cb23ecab9</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 8c8e4a59-9178-4781-ac40-7e7cb23ecab9
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 13e3855a-8ee7-450f-a908-d2fa8ef29ab3
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 13e3855a-8ee7-450f-a908-d2fa8ef29ab3</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.05 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 13e3855a-8ee7-450f-a908-d2fa8ef29ab3</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 13e3855a-8ee7-450f-a908-d2fa8ef29ab3
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.17 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a9a5e5bb-1aa5-4c1f-9a63-480706ba6707
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.05 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a9a5e5bb-1aa5-4c1f-9a63-480706ba6707</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.03 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a9a5e5bb-1aa5-4c1f-9a63-480706ba6707</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.19', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a9a5e5bb-1aa5-4c1f-9a63-480706ba6707
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 167c5431-edea-445d-85cd-28df66fdc2f1
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 167c5431-edea-445d-85cd-28df66fdc2f1</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.09 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 167c5431-edea-445d-85cd-28df66fdc2f1</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.145.71', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 167c5431-edea-445d-85cd-28df66fdc2f1
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.12 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2244705d-f11e-4e8e-b6d7-a660a108b7a1
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.05 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2244705d-f11e-4e8e-b6d7-a660a108b7a1</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.13 seconds
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2244705d-f11e-4e8e-b6d7-a660a108b7a1</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b', time: '2016-03-15 17:00:58'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2244705d-f11e-4e8e-b6d7-a660a108b7a1
 *** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
   </si>
 </sst>
@@ -1478,7 +2472,7 @@
     <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
@@ -2621,7 +3615,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -2811,7 +3805,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -2905,7 +3899,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
@@ -2952,7 +3946,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
@@ -3001,7 +3995,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -3119,7 +4113,7 @@
     <col min="6" max="6" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="6" width="17.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="6.3984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="6" width="19.42578125" collapsed="true"/>
     <col min="11" max="12" style="6" width="8.85546875" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="255.0" collapsed="true"/>
@@ -3177,7 +4171,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16742" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17072" uniqueCount="259">
   <si>
     <t>TCID</t>
   </si>
@@ -1725,6 +1725,46 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=45.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: 2244705d-f11e-4e8e-b6d7-a660a108b7a1
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.05 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d1f3808f-223f-4444-a282-0450b11ab472
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d1f3808f-223f-4444-a282-0450b11ab472</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.11 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d1f3808f-223f-4444-a282-0450b11ab472</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: d1f3808f-223f-4444-a282-0450b11ab472
 *** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
   </si>
 </sst>
@@ -1733,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3615,7 +3655,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -3805,7 +3845,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -3899,7 +3939,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
@@ -3995,7 +4035,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -4171,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17072" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18392" uniqueCount="275">
   <si>
     <t>TCID</t>
   </si>
@@ -1765,6 +1765,166 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: d1f3808f-223f-4444-a282-0450b11ab472
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.25 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c2aa7b4d-4d19-4db4-9b34-6c6434dbb2a9
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.12 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c2aa7b4d-4d19-4db4-9b34-6c6434dbb2a9</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.02 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c2aa7b4d-4d19-4db4-9b34-6c6434dbb2a9</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c2aa7b4d-4d19-4db4-9b34-6c6434dbb2a9
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6038fe3d-3d78-4848-b937-a9c651a7469f
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.10 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6038fe3d-3d78-4848-b937-a9c651a7469f</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.07 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6038fe3d-3d78-4848-b937-a9c651a7469f</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.13 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6038fe3d-3d78-4848-b937-a9c651a7469f
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.08 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b7a4c8bc-f250-4c2d-b520-f780eadbf191
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.04 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b7a4c8bc-f250-4c2d-b520-f780eadbf191</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.03 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b7a4c8bc-f250-4c2d-b520-f780eadbf191</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: b7a4c8bc-f250-4c2d-b520-f780eadbf191
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.15 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: e05b3e6b-83df-4c93-a2fb-6edd9b7678c4
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: e05b3e6b-83df-4c93-a2fb-6edd9b7678c4</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.05 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: e05b3e6b-83df-4c93-a2fb-6edd9b7678c4</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.187', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: e05b3e6b-83df-4c93-a2fb-6edd9b7678c4
 *** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
   </si>
 </sst>
@@ -3655,7 +3815,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -3845,7 +4005,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -3939,7 +4099,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
@@ -4035,7 +4195,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -4211,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
+++ b/src/test/java/com/genvideo/xls/VES_Test_Cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18722" uniqueCount="278">
   <si>
     <t>TCID</t>
   </si>
@@ -1925,6 +1925,37 @@
 Driver info: org.openqa.selenium.firefox.FirefoxDriver
 Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
 Session ID: e05b3e6b-83df-4c93-a2fb-6edd9b7678c4
+*** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
+  </si>
+  <si>
+    <t>FAILUnable to go back, Check if its openUnable to locate element: {"method":"xpath","selector":".//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 9423bf80-b837-4d21-ba48-3d727ba998d0
+*** Element info: {Using=xpath, value=.//*[@id='engagement-orders-builder']/div/div[3]/div/section[1]/div/div/form/div[2]/div[1]/div[3]/div[1]/div[1]/table/tbody/tr[5]/td[7]/button}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.08 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 9423bf80-b837-4d21-ba48-3d727ba998d0</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on linkUnable to locate element: {"method":"xpath","selector":".//*[@id='interactions-player-step']/div/div/div[5]/a"}
+Command duration or timeout: 20.09 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.137', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 9423bf80-b837-4d21-ba48-3d727ba998d0
 *** Element info: {Using=xpath, value=.//*[@id='interactions-player-step']/div/div/div[5]/a}</t>
   </si>
 </sst>
@@ -3815,7 +3846,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -4005,7 +4036,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -4099,7 +4130,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
@@ -4195,7 +4226,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -4371,7 +4402,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
